--- a/data/Clinical_Omicron_VE_plus_booster.xlsx
+++ b/data/Clinical_Omicron_VE_plus_booster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raharinirina/Documents/Immune_Waning/VASIL_Extra/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D8618-AAA9-9148-A394-FF967ABCFA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82538774-8CDD-2F4E-AA4A-17C4622C31B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82000" yWindow="1740" windowWidth="27900" windowHeight="25820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38920" yWindow="500" windowWidth="39900" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
